--- a/MiniDesignerConfigsTemplate/Datas/__beans__.xlsx
+++ b/MiniDesignerConfigsTemplate/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD3F889-2466-49FD-B4B9-A1191D0894D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCBFB9F-7D16-4958-A19A-09125B8E6F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1350" windowWidth="26100" windowHeight="14850" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="30510" yWindow="1995" windowWidth="25335" windowHeight="12915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_multi_rows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否多行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,39 +151,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title_rows=3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tags</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ref</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orientation</t>
+    <t>*fields</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,220 +564,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="5" width="15" customWidth="1"/>
-    <col min="6" max="11" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="6" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
       <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="N5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="I11" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:P2"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MiniDesignerConfigsTemplate/Datas/__beans__.xlsx
+++ b/MiniDesignerConfigsTemplate/Datas/__beans__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCBFB9F-7D16-4958-A19A-09125B8E6F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10435D27-5F1C-482F-B63E-3B24DD27ED25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30510" yWindow="1995" windowWidth="25335" windowHeight="12915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="30210" yWindow="2355" windowWidth="25335" windowHeight="12915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,141 +25,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最差品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是个测试excel结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分割符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TestExcelBean1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TestExcelBean2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全名(包含模块和名字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最差品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是个测试excel结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分割符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.TestExcelBean1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>full_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.TestExcelBean2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全名(包含模块和名字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_rows=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*fields</t>
+    <t>##field</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,11 +242,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,80 +580,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
@@ -661,7 +671,7 @@
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -669,7 +679,7 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
         <v>6</v>
@@ -680,30 +690,30 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -711,7 +721,7 @@
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -725,21 +735,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:J2"/>
+  <mergeCells count="1">
+    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MiniDesignerConfigsTemplate/Datas/__beans__.xlsx
+++ b/MiniDesignerConfigsTemplate/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10435D27-5F1C-482F-B63E-3B24DD27ED25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7173196B-0363-4236-971D-D30432451612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="2355" windowWidth="25335" windowHeight="12915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>##field</t>
+    <t>##+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,11 +242,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -567,7 +567,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,7 +580,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
@@ -595,16 +595,16 @@
       <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">

--- a/MiniDesignerConfigsTemplate/Datas/__beans__.xlsx
+++ b/MiniDesignerConfigsTemplate/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7173196B-0363-4236-971D-D30432451612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1C9176-F320-489D-B75B-2A1E1F20C0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="30570" yWindow="1875" windowWidth="25140" windowHeight="14325" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>##+</t>
+    <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/MiniDesignerConfigsTemplate/Datas/__beans__.xlsx
+++ b/MiniDesignerConfigsTemplate/Datas/__beans__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1C9176-F320-489D-B75B-2A1E1F20C0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2402630-BB15-42D0-A667-E1E1C889EF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30570" yWindow="1875" windowWidth="25140" windowHeight="14325" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="33015" yWindow="1380" windowWidth="25140" windowHeight="14325" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,7 +567,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,7 +581,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>27</v>
